--- a/Bugs_PaginaSalomon.xlsx
+++ b/Bugs_PaginaSalomon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoSalomon-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84EE7A0-D34B-4173-BB6F-A9E04AE25C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A19541-5C12-47D7-B716-8F07B26B7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>ID4</t>
+  </si>
+  <si>
+    <t>2. Desplazarse hacia abajo hasta el apartado "Hidratación para carreras de trail"</t>
+  </si>
+  <si>
+    <t>Windows 10 - Pagina principal - El banner esta cruzado con algunas fotos de productos.</t>
+  </si>
+  <si>
+    <t>Los elementos de la pagina web no deben cruzarse</t>
+  </si>
+  <si>
+    <t>El banner "Hidratación para senderos" está sobrecruzada por las fotos de los productos.</t>
+  </si>
+  <si>
+    <t>ID5</t>
   </si>
 </sst>
 </file>
@@ -335,84 +350,78 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,51 +762,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -812,84 +821,84 @@
       <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="9">
         <v>44441</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="18"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -904,84 +913,84 @@
       <c r="F6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="9">
         <v>44441</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="26" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="18">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -996,84 +1005,84 @@
       <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="9">
         <v>44441</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="18">
         <v>4</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -1088,87 +1097,180 @@
       <c r="F14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="15" t="s">
         <v>42</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="9">
         <v>44443</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="6" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="9">
+        <v>44455</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
+  <mergeCells count="60">
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="I14:I17"/>
@@ -1178,40 +1280,18 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M14:M17"/>
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bugs_PaginaSalomon.xlsx
+++ b/Bugs_PaginaSalomon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoSalomon-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A19541-5C12-47D7-B716-8F07B26B7BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4B408-4C2A-4A6C-9AF9-AB30A533075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Windows 10 - Pagina de lista de productos - El link "medias para niño" esta roto</t>
   </si>
   <si>
-    <t>baja</t>
-  </si>
-  <si>
     <t>Visualizar los productos de medias para niños</t>
   </si>
   <si>
@@ -190,6 +187,30 @@
   </si>
   <si>
     <t>ID5</t>
+  </si>
+  <si>
+    <t>2. Desplazarse hacia abajo y hacer click en "nuestro compromiso"</t>
+  </si>
+  <si>
+    <t>3. Hacer click en "Mind The Playmakers"</t>
+  </si>
+  <si>
+    <t>4. Desplazarse hacia abajo y hacer clic en "code of conducts amer sports"</t>
+  </si>
+  <si>
+    <t>Windows 10 - Mind The Playmakers - El link de codigo de conducta esta roto</t>
+  </si>
+  <si>
+    <t>Ingresar correctamente al link y visualizar el .PDF</t>
+  </si>
+  <si>
+    <t>Sorry, content not found</t>
+  </si>
+  <si>
+    <t>Versión 94.0.4606.54 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>ID6</t>
   </si>
 </sst>
 </file>
@@ -350,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -376,53 +397,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,10 +765,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +781,7 @@
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="7" max="7" width="65.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="49.28515625" customWidth="1"/>
     <col min="9" max="9" width="45.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
@@ -803,439 +832,577 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="16">
         <v>44441</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>46</v>
+      <c r="M2" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="22"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="22"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="23"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="16">
+        <v>44441</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="9">
-        <v>44441</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>3</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="16">
+        <v>44441</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="9">
-        <v>44441</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>4</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="16">
+        <v>44443</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="9">
-        <v>44443</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="22"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="23"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>5</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="J18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="16">
+        <v>44455</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="9">
-        <v>44455</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="21" t="s">
+      <c r="K20" s="16">
+        <v>44462</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+  <mergeCells count="72">
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -1248,48 +1415,14 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
     <mergeCell ref="F14:F17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bugs_PaginaSalomon.xlsx
+++ b/Bugs_PaginaSalomon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gx_jo\Desktop\Proyecto Personal Git Hub\ProyectoSalomon-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4B408-4C2A-4A6C-9AF9-AB30A533075C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554B0403-69C7-48AB-B226-20B97B5A29A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08D6E389-2B52-40D8-ADB8-D47B81300FA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -207,10 +207,34 @@
     <t>Sorry, content not found</t>
   </si>
   <si>
-    <t>Versión 94.0.4606.54 (Build oficial) (64 bits)</t>
-  </si>
-  <si>
     <t>ID6</t>
+  </si>
+  <si>
+    <t>2. Hacer clic en el boton "sportsyle"</t>
+  </si>
+  <si>
+    <t>3. En la seccion calzado hacer clic en "sneakers"</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>Windows 10 - Pagina de lista de productos - La pagina se demora en cargar al seleccionar "sneakers"</t>
+  </si>
+  <si>
+    <t>Ingresar inmediatamente y visualizar los productos "sneakers"</t>
+  </si>
+  <si>
+    <t>Al ingresar al boton de "sneakers" la pagina se demora en cargar</t>
+  </si>
+  <si>
+    <t>Chrome Versión Versión 94.0.4606.54 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>Chrome Versión Versión 94.0.4606.61 (Build oficial) (64 bits)</t>
+  </si>
+  <si>
+    <t>ID7</t>
   </si>
 </sst>
 </file>
@@ -371,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -400,27 +424,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,25 +469,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,12 +792,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEFFA3C-5EAF-45D6-AC90-0324EDAFBF32}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="59.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +805,7 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="65.5703125" bestFit="1" customWidth="1"/>
@@ -832,577 +859,618 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="18">
         <v>44441</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="20"/>
-      <c r="M3" s="24"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="20"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="11"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="22">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="18">
         <v>44441</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="24"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
+      <c r="M8" s="13"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="11"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="18">
         <v>44441</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="12" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="24"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="11"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="18">
         <v>44443</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="25"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="11"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+      <c r="A18" s="22">
         <v>5</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="I18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="18">
         <v>44455</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="11"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+      <c r="A20" s="22">
         <v>6</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="18">
         <v>44462</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="20"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="24"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="11"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>7</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="18">
+        <v>44472</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="J6:J9"/>
+  <mergeCells count="84">
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -1417,12 +1485,58 @@
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="F14:F17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
